--- a/biology/Zoologie/Cloudina/Cloudina.xlsx
+++ b/biology/Zoologie/Cloudina/Cloudina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cloudina est un genre éteint de métazoaires primitifs de la période de l'Édiacarien.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cloudina a été créé en 1972 par Gerard J. B. Germs (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre a été donné en l'honneur du géologue et paléontologue Preston Cloud.
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est retrouvé sous la forme de fossiles constitués de cônes calcaires de taille millimétrique en diamètre, imbriqués les uns dans les autres, pour une longueur totale de 8 à 150 mm. La forme de l'animal lui-même est inconnue.
-Les espèces du genre Cloudina semblent être les premières à avoir constitué des récifs et donc les premières à trouver cette réponse adaptative bien avant les coraux et les éponges vis-à-vis de la prédation[2],[3].
+Les espèces du genre Cloudina semblent être les premières à avoir constitué des récifs et donc les premières à trouver cette réponse adaptative bien avant les coraux et les éponges vis-à-vis de la prédation,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (11 juillet 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (11 juillet 2021) :
 † Cloudina carinata Cortijo, Musa, Jensena et Palacios, 2009
 † Cloudina hartmannae Germs 1972
 † Cloudina lucianoi (Beurlen &amp; Sommer, 1957) Zaine &amp; Fairchild, 1985
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Gerard J. B. Germs, « New shelly fossils from Nama Group, South West Africa », American Journal of Science, and Arts, New Haven, Inconnu, vol. 272, no 8,‎ 1er octobre 1972, p. 752-761 (ISSN 0002-9599 et 1945-452X, OCLC 5694945, DOI 10.2475/AJS.272.8.752)</t>
         </is>
